--- a/Transition Table.xlsx
+++ b/Transition Table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="22">
   <si>
     <t xml:space="preserve">Away Button</t>
   </si>
@@ -43,7 +43,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Timeout</t>
+    <t xml:space="preserve">Timer Ticks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timer Runs Out</t>
   </si>
   <si>
     <t xml:space="preserve">Ready</t>
@@ -76,13 +79,13 @@
     <t xml:space="preserve">Disarm (away)</t>
   </si>
   <si>
+    <t xml:space="preserve">Warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disarm (stay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Breach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disarm (stay)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alarm</t>
   </si>
 </sst>
 </file>
@@ -97,6 +100,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -118,6 +122,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,24 +201,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="15.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -241,353 +246,392 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Transition Table.xlsx
+++ b/Transition Table.xlsx
@@ -43,19 +43,19 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Timer Runs Out</t>
+  </si>
+  <si>
     <t xml:space="preserve">Timer Ticks</t>
   </si>
   <si>
-    <t xml:space="preserve">Timer Runs Out</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ready</t>
   </si>
   <si>
-    <t xml:space="preserve">Arming (away)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arming (stay)</t>
+    <t xml:space="preserve">Arming (Away)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arming (Stay)</t>
   </si>
   <si>
     <t xml:space="preserve">~</t>
@@ -64,28 +64,28 @@
     <t xml:space="preserve">Unarmed</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirm (away)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm (stay)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armed (away)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armed (stay)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disarm (away)</t>
+    <t xml:space="preserve">Confirm (Away)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm (Stay)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armed (Away)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armed (Stay)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disarm (Away)</t>
   </si>
   <si>
     <t xml:space="preserve">Warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Disarm (stay)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breach</t>
+    <t xml:space="preserve">Disarm (Stay)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breached</t>
   </si>
 </sst>
 </file>
@@ -211,14 +211,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,10 +308,10 @@
         <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,10 +340,10 @@
         <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,7 +476,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -500,15 +500,15 @@
         <v>13</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -532,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>12</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -564,15 +564,15 @@
         <v>13</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
@@ -599,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Transition Table.xlsx
+++ b/Transition Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23595" windowHeight="13650" tabRatio="500"/>
+    <workbookView windowWidth="22395" windowHeight="11400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,12 +82,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -102,7 +102,59 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -113,68 +165,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +204,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -203,59 +235,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +456,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,6 +513,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -505,39 +539,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,152 +556,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -713,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1033,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6095238095238" defaultRowHeight="12.75"/>

--- a/Transition Table.xlsx
+++ b/Transition Table.xlsx
@@ -5,11 +5,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22395" windowHeight="11400" tabRatio="500"/>
+    <workbookView windowWidth="22395" windowHeight="10395" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Transution Table" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Transution Table'!$A$1:$J$11</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -82,8 +85,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -100,6 +103,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -112,6 +123,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -121,37 +146,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,59 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -234,6 +214,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -241,6 +229,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +251,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -271,19 +274,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,167 +406,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,30 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,11 +533,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,159 +548,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1033,7 +1054,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A1" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6095238095238" defaultRowHeight="12.75"/>
@@ -1043,361 +1064,362 @@
     <col min="3" max="4" width="13.1047619047619" customWidth="1"/>
     <col min="5" max="5" width="12.2666666666667" customWidth="1"/>
     <col min="6" max="6" width="14.0761904761905" customWidth="1"/>
-    <col min="9" max="9" width="15.047619047619" customWidth="1"/>
+    <col min="9" max="9" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.789583333333333" right="0.789583333333333" top="1.05" bottom="1.05" header="0.789583333333333" footer="0.789583333333333"/>
+  <pageSetup paperSize="1" scale="90" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
